--- a/data/CS1/case33.xlsx
+++ b/data/CS1/case33.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\grid_management_tools\data\CS1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E7117-C501-4D34-8EA2-EA6BEE185DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1AA9C-5161-4A75-BE3E-DA01DE3D5868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15195" windowWidth="38640" windowHeight="21120" tabRatio="722" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15195" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Pc, S1" sheetId="29" r:id="rId2"/>
     <sheet name="Pc, S2" sheetId="192" r:id="rId3"/>
     <sheet name="Pc, S3" sheetId="193" r:id="rId4"/>
@@ -51,27 +51,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
   <si>
     <t>numScenarios</t>
   </si>
   <si>
-    <t>ESS Installed, [MWh]</t>
-  </si>
-  <si>
-    <t>Load Scale Factor</t>
-  </si>
-  <si>
-    <t>Load Growth (cumul.)</t>
-  </si>
-  <si>
-    <t>Flex. Load Growth</t>
-  </si>
-  <si>
     <t>GenID</t>
-  </si>
-  <si>
-    <t>RES Installed, [MW]</t>
   </si>
   <si>
     <t>LoadID</t>
@@ -90,18 +75,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,15 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,46 +431,6 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -512,7 +450,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -665,233 +603,233 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2.7107587314331596</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2.9164993978321956</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2.9014452027298274</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2.9074668807707749</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>3.0098354074668809</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>3.1774387796065842</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>3.3851866720192691</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>3.391208350060217</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>3.3610999598554798</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>3.1543556804496187</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>2.7509032517061422</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>2.5311120032115615</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>2.4317543155359296</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>2.2661581694098758</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>2.0714572460859095</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>2.0895222802087514</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>2.1678040947410677</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>2.497992773986351</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>2.7047370533922122</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>2.7719791248494579</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>2.6806503412284224</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>2.5351264552388599</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>2.5622240064231234</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>2.6676033721397028</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1082,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1297,233 +1235,233 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2.6234443998394221</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2.6635889201124048</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2.6726214371738255</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2.443797671617824</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2.5220794861501403</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2.6625853071055801</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>2.7258129265355278</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>2.5963468486551582</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>2.4708952228020875</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>2.3273785628261741</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>2.1868727418707348</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>2.0664391810517864</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>1.904857486953031</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>1.4753111200321156</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>1.4431955038137296</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>1.4682858289843437</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>1.8627057406663992</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>2.1828582898434363</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>2.3253713368125251</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>2.4287434765154554</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>2.5100361300682454</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>2.6053793657165798</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>2.556202328382176</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>2.4869530309112804</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1776,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1929,233 +1867,233 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2.5120433560818949</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2.5010036130068247</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2.4377759935768766</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2.497992773986351</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2.4277398635086311</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2.4146928944199115</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>2.502007226013649</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>2.3514652749899638</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>2.164793255720594</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>2.027298273785628</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>1.8336009634684867</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>1.5796868727418709</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>1.4241268566840626</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>1.4150943396226414</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>1.6057808109193095</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>1.6619831393014852</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>1.8376154154957849</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>2.1296668004817345</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>2.3163388197511039</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>2.4548374146928946</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>2.474909674829386</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>2.281212364512244</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>2.1035728623042953</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>2.0202729827378563</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2408,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2561,233 +2499,233 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3040,7 +2978,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3193,233 +3131,233 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3610,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3825,233 +3763,233 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4296,7 +4234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
@@ -4304,7 +4242,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4457,233 +4395,233 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>1</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>1</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>1</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>1</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>1</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>1</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>1</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>1</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>1</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>1</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>1</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>1</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>1</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>1</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>1</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>1</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>1</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>1</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>1</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>1</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>1</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>1</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>1</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>1</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>1</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>1</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>1</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>1</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>1</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <v>1</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>1</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <v>1</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4936,7 +4874,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -7492,7 +7430,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -10048,7 +9986,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -12604,7 +12542,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -15160,7 +15098,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -17716,7 +17654,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -20272,7 +20210,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -22828,7 +22766,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
